--- a/result/inspect_all.xlsx
+++ b/result/inspect_all.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,16 +522,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47.06140930815564</v>
+        <v>33.46650889063781</v>
       </c>
       <c r="E3" t="n">
-        <v>3.298577533061338</v>
+        <v>14.57049709706618</v>
       </c>
       <c r="F3" t="n">
-        <v>14.2671830012935</v>
+        <v>2.296868025001983</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.02162629953221007</v>
       </c>
     </row>
     <row r="4">
@@ -484,16 +551,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>61.71852326714824</v>
+        <v>44.29666813354901</v>
       </c>
       <c r="E4" t="n">
-        <v>3.52611844478052</v>
+        <v>19.20028721066154</v>
       </c>
       <c r="F4" t="n">
-        <v>17.50324733376117</v>
+        <v>2.307083620548637</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.02105015888896133</v>
       </c>
     </row>
     <row r="5">
@@ -513,16 +580,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>67.92873560496444</v>
+        <v>48.76999433040179</v>
       </c>
       <c r="E5" t="n">
-        <v>3.01614014110764</v>
+        <v>21.0707792830891</v>
       </c>
       <c r="F5" t="n">
-        <v>22.52174382719363</v>
+        <v>2.314579526232383</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.02063595440716148</v>
       </c>
     </row>
     <row r="6">
@@ -577,16 +644,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.007019550985988825</v>
+        <v>0.01367854867303762</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007230426302795262</v>
+        <v>0.011555436757121</v>
       </c>
       <c r="F7" t="n">
-        <v>9.708350078288934</v>
+        <v>1.183732727663844</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.2365188793740161</v>
       </c>
     </row>
     <row r="8">
@@ -606,16 +673,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.04897092166384403</v>
+        <v>0.04815408698480669</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01183837572798766</v>
+        <v>0.01164169110711569</v>
       </c>
       <c r="F8" t="n">
-        <v>4.136625056082057</v>
+        <v>4.136348107641972</v>
       </c>
       <c r="G8" t="n">
-        <v>3.524513088315473e-05</v>
+        <v>3.528767470761807e-05</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +737,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.4904845529171414</v>
+        <v>-0.4902910671702181</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06754423178005588</v>
+        <v>0.06754855068973968</v>
       </c>
       <c r="F10" t="n">
-        <v>-7.261679346758186</v>
+        <v>-7.25835065529293</v>
       </c>
       <c r="G10" t="n">
-        <v>3.823608096809039e-13</v>
+        <v>3.919087276926803e-13</v>
       </c>
     </row>
     <row r="11">
@@ -769,16 +836,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-89.68005545449785</v>
+        <v>-65.45238109799612</v>
       </c>
       <c r="E13" t="n">
-        <v>6.490553414083992</v>
+        <v>28.97863929027678</v>
       </c>
       <c r="F13" t="n">
-        <v>-13.81701216107171</v>
+        <v>-2.258642320723291</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.0239056430401714</v>
       </c>
     </row>
     <row r="14">
@@ -798,16 +865,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>52.34273619334388</v>
+        <v>37.64014793415623</v>
       </c>
       <c r="E14" t="n">
-        <v>2.292989535208486</v>
+        <v>16.29130250199708</v>
       </c>
       <c r="F14" t="n">
-        <v>22.82728961018214</v>
+        <v>2.310444357014413</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.02086356574935522</v>
       </c>
     </row>
     <row r="15">
@@ -827,16 +894,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-80.21416965133773</v>
+        <v>-57.70060304597271</v>
       </c>
       <c r="E15" t="n">
-        <v>3.273353366686702</v>
+        <v>24.97595801219386</v>
       </c>
       <c r="F15" t="n">
-        <v>-24.50519716803635</v>
+        <v>-2.310245837929404</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.02087454762957042</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +958,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.4774727143563571</v>
+        <v>0.4789772985152444</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05259698509357193</v>
+        <v>0.05313958698940358</v>
       </c>
       <c r="F17" t="n">
-        <v>9.077948355743928</v>
+        <v>9.01356833280888</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -955,16 +1022,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2052056332142394</v>
+        <v>0.2049292657654104</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03774682256543338</v>
+        <v>0.03777601828096172</v>
       </c>
       <c r="F19" t="n">
-        <v>5.436368395063798</v>
+        <v>5.424850873265946</v>
       </c>
       <c r="G19" t="n">
-        <v>5.437746897207774e-08</v>
+        <v>5.800294533564454e-08</v>
       </c>
     </row>
     <row r="20">
@@ -1019,22 +1086,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.005380090411903423</v>
+        <v>0.004581585273819162</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03239056129286083</v>
+        <v>0.02661884522382703</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1661005613052819</v>
+        <v>0.1721181078714106</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8680778124350101</v>
+        <v>0.8633446771811288</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12_18_education</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1048,16 +1115,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.391792559971196</v>
+        <v>1.158574985301446</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3872330511184647</v>
+        <v>0.4032046518397248</v>
       </c>
       <c r="F22" t="n">
-        <v>3.594198780159951</v>
+        <v>2.873416712858537</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003253913488376892</v>
+        <v>0.004060581276218223</v>
       </c>
     </row>
     <row r="23">
@@ -1077,16 +1144,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.46562931697306</v>
+        <v>1.172425820321386</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3806839553948961</v>
+        <v>0.4342901586912822</v>
       </c>
       <c r="F23" t="n">
-        <v>3.849989725594987</v>
+        <v>2.699637090215789</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001181227798001672</v>
+        <v>0.006941515031214429</v>
       </c>
     </row>
     <row r="24">
@@ -1141,16 +1208,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.0270683498280581</v>
+        <v>0.02706726892125026</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01006404403859366</v>
+        <v>0.01007043215231238</v>
       </c>
       <c r="F25" t="n">
-        <v>2.689609636202567</v>
+        <v>2.687796164968677</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007153564449957184</v>
+        <v>0.007192528754290439</v>
       </c>
     </row>
     <row r="26">
@@ -1170,13 +1237,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.373451812194051</v>
+        <v>0.3734527504130399</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04217001613299854</v>
+        <v>0.04221526351837394</v>
       </c>
       <c r="F26" t="n">
-        <v>8.855861259511464</v>
+        <v>8.846391548441961</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1234,16 +1301,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.155293589501083</v>
+        <v>5.178558927070861</v>
       </c>
       <c r="E28" t="n">
-        <v>1.081322987314019</v>
+        <v>1.088903058075319</v>
       </c>
       <c r="F28" t="n">
-        <v>4.767579761068379</v>
+        <v>4.755757538434522</v>
       </c>
       <c r="G28" t="n">
-        <v>1.864521885330817e-06</v>
+        <v>1.977036406142219e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1263,16 +1330,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.077442631799876</v>
+        <v>2.086934347023</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3195890470505663</v>
+        <v>0.322081091937277</v>
       </c>
       <c r="F29" t="n">
-        <v>6.500356163534843</v>
+        <v>6.479530774265186</v>
       </c>
       <c r="G29" t="n">
-        <v>8.013012475771575e-11</v>
+        <v>9.20084008981803e-11</v>
       </c>
     </row>
     <row r="30">
@@ -1327,16 +1394,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>108.4494660377197</v>
+        <v>54.94263916406631</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004006486091850689</v>
+        <v>46.07523560544458</v>
       </c>
       <c r="F31" t="n">
-        <v>27068.47434993988</v>
+        <v>1.192454871735321</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.2330829357348509</v>
       </c>
     </row>
     <row r="32">
@@ -1356,16 +1423,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.3431892540774291</v>
+        <v>0.1738818874642944</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7066753006031318</v>
+        <v>0.3431830566597622</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4856392374037115</v>
+        <v>0.5066738700802975</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6272229717017663</v>
+        <v>0.6123836676243679</v>
       </c>
     </row>
     <row r="33">
@@ -1420,16 +1487,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.4293486271189564</v>
+        <v>0.4229134575470485</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05289844330421415</v>
+        <v>0.0518191272268315</v>
       </c>
       <c r="F34" t="n">
-        <v>8.116469980821458</v>
+        <v>8.16133887565567</v>
       </c>
       <c r="G34" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="35">
@@ -1449,13 +1516,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.8427544355866929</v>
+        <v>-0.8321968950272246</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08642638592245039</v>
+        <v>0.08451488753445621</v>
       </c>
       <c r="F35" t="n">
-        <v>-9.751124342201901</v>
+        <v>-9.846749126632821</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1513,16 +1580,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.004775508040795417</v>
+        <v>-0.004769211834204545</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00583810736808362</v>
+        <v>0.005838528376273138</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.8179890740079016</v>
+        <v>-0.8168517006389866</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4133634261238091</v>
+        <v>0.4140131824470377</v>
       </c>
     </row>
     <row r="38">
@@ -1542,13 +1609,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.5131123941369065</v>
+        <v>-0.5127601894772794</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0507284429324061</v>
+        <v>0.05073304611427717</v>
       </c>
       <c r="F38" t="n">
-        <v>-10.11488554479183</v>
+        <v>-10.10702547432634</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1606,16 +1673,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.6536624114734</v>
+        <v>1.654828723481183</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2281961167865748</v>
+        <v>0.2284566444541258</v>
       </c>
       <c r="F40" t="n">
-        <v>7.246672006311025</v>
+        <v>7.243513216382857</v>
       </c>
       <c r="G40" t="n">
-        <v>4.272138198757602e-13</v>
+        <v>4.372058270973866e-13</v>
       </c>
     </row>
     <row r="41">
@@ -1635,16 +1702,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.923703224196922</v>
+        <v>2.924662801481492</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4118267188477068</v>
+        <v>0.4121498670287418</v>
       </c>
       <c r="F41" t="n">
-        <v>7.099352932637199</v>
+        <v>7.096114873356107</v>
       </c>
       <c r="G41" t="n">
-        <v>1.253441794801802e-12</v>
+        <v>1.283195771861756e-12</v>
       </c>
     </row>
     <row r="42">
@@ -1664,16 +1731,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.199748076685315</v>
+        <v>2.201743851507626</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3157999606145213</v>
+        <v>0.3161971774095595</v>
       </c>
       <c r="F42" t="n">
-        <v>6.96563759032084</v>
+        <v>6.963198942945715</v>
       </c>
       <c r="G42" t="n">
-        <v>3.269162718311236e-12</v>
+        <v>3.326228181776969e-12</v>
       </c>
     </row>
     <row r="43">
@@ -1693,16 +1760,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.311987505227097</v>
+        <v>-0.3124677127402163</v>
       </c>
       <c r="E43" t="n">
-        <v>0.06785941789590567</v>
+        <v>0.06793067651429331</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.597556461522834</v>
+        <v>-4.599802751410404</v>
       </c>
       <c r="G43" t="n">
-        <v>4.274748055310695e-06</v>
+        <v>4.228911757886422e-06</v>
       </c>
     </row>
     <row r="44">
@@ -1757,16 +1824,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.1237784748603047</v>
+        <v>0.123765075655875</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01938337396185229</v>
+        <v>0.01937956047060159</v>
       </c>
       <c r="F45" t="n">
-        <v>6.385806469891296</v>
+        <v>6.386371653641881</v>
       </c>
       <c r="G45" t="n">
-        <v>1.704965058024754e-10</v>
+        <v>1.698678975259327e-10</v>
       </c>
     </row>
     <row r="46">
@@ -1786,13 +1853,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.240620959728871</v>
+        <v>1.240466377087023</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02905338372460265</v>
+        <v>0.02904469592040586</v>
       </c>
       <c r="F46" t="n">
-        <v>42.70142753236695</v>
+        <v>42.70887808375377</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1815,22 +1882,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.1359712241796085</v>
+        <v>0.1353486620880775</v>
       </c>
       <c r="E47" t="n">
-        <v>0.05021315256602428</v>
+        <v>0.05020618830823115</v>
       </c>
       <c r="F47" t="n">
-        <v>2.707880649360041</v>
+        <v>2.695856161285035</v>
       </c>
       <c r="G47" t="n">
-        <v>0.006771436893239891</v>
+        <v>0.007020797653491284</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>rights_and_citizenship</t>
+          <t>social_links</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1840,26 +1907,26 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>rights_and_citizenship</t>
+          <t>social_links</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.08112913498370344</v>
+        <v>0.01017459759349866</v>
       </c>
       <c r="E48" t="n">
-        <v>0.006507927964190604</v>
+        <v>0.003027271461077187</v>
       </c>
       <c r="F48" t="n">
-        <v>12.46620051998798</v>
+        <v>3.360979588701064</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.0007766656486685175</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>safety_and_stability</t>
+          <t>health</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1869,26 +1936,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>safety_and_stability</t>
+          <t>health</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.3614656486940762</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001474989847935073</v>
+        <v>0.07756545030181303</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>4.660137307047479</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3.159985154876921e-06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>social_links</t>
+          <t>social_bonds</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1898,26 +1965,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>social_links</t>
+          <t>social_bonds</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.01026623639685097</v>
+        <v>5.021501880784575e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003043254475116774</v>
+        <v>0.06921035400786719</v>
       </c>
       <c r="F50" t="n">
-        <v>3.373440005566278</v>
+        <v>7.255420020162334e-13</v>
       </c>
       <c r="G50" t="n">
-        <v>0.000742352217225406</v>
+        <v>0.9999999999994211</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>safety_and_stability</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1927,26 +1994,26 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>safety_and_stability</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.08112913499441127</v>
+        <v>4.569855485149349e-15</v>
       </c>
       <c r="E51" t="n">
-        <v>0.006507927963365548</v>
+        <v>0.001473269329833939</v>
       </c>
       <c r="F51" t="n">
-        <v>12.46620052321376</v>
+        <v>3.10184661385885e-12</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.9999999999975251</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>language_and_cultural_knowledge</t>
+          <t>social_bridges</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1956,26 +2023,26 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>language_and_cultural_knowledge</t>
+          <t>social_bridges</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.000165663756868351</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01539028262180936</v>
+        <v>0.0001658654308972162</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.9987841045204033</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.31789928781306</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1985,26 +2052,26 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.01248538346842441</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004947617527365477</v>
+        <v>0.09411627607413293</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.1326591317580111</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.8944629652496234</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>social_connections</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2014,26 +2081,26 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>social_connections</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.4761943864732652</v>
+        <v>0.3678525915519256</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07360528110632836</v>
+        <v>0.07649618559276147</v>
       </c>
       <c r="F54" t="n">
-        <v>6.469568206374989</v>
+        <v>4.80877038111983</v>
       </c>
       <c r="G54" t="n">
-        <v>9.828338143336168e-11</v>
+        <v>1.518615219131547e-06</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>social_bridges</t>
+          <t>markers_and_means</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2043,26 +2110,26 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>social_bridges</t>
+          <t>markers_and_means</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.245916871706744e-05</v>
+        <v>7.387425725862631e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>6.517549141942162e-05</v>
+        <v>6.39942341935868e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6514591166236444</v>
+        <v>1.154389251393533</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5147501600764999</v>
+        <v>0.2483406198726303</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>rights_and_citizenship</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2072,26 +2139,26 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>rights_and_citizenship</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.3622857585530422</v>
+        <v>0.08115253010307359</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07754478218860297</v>
+        <v>741455.2001894723</v>
       </c>
       <c r="F56" t="n">
-        <v>4.671955331143049</v>
+        <v>1.094503485609593e-07</v>
       </c>
       <c r="G56" t="n">
-        <v>2.98345851690307e-06</v>
+        <v>0.9999999126712567</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2101,26 +2168,26 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.01186021888095926</v>
+        <v>7.329670968289659e-16</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0939287063092739</v>
+        <v>0.004945858060234246</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1262683086657396</v>
+        <v>1.481981665778036e-13</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8995195414609798</v>
+        <v>0.9999999999998817</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2130,26 +2197,26 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.006017798279041575</v>
+        <v>0.08115253010841403</v>
       </c>
       <c r="E58" t="n">
-        <v>0.002886637698976436</v>
+        <v>741455.2001894723</v>
       </c>
       <c r="F58" t="n">
-        <v>2.08470854485504</v>
+        <v>1.094503485681619e-07</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03709576455426711</v>
+        <v>0.9999999126712567</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>social_connections</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2159,26 +2226,26 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>social_connections</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.3608582177620041</v>
+        <v>0.475597284852107</v>
       </c>
       <c r="E59" t="n">
-        <v>0.07568196960361061</v>
+        <v>0.07368954166148169</v>
       </c>
       <c r="F59" t="n">
-        <v>4.768087031128485</v>
+        <v>6.454067621026509</v>
       </c>
       <c r="G59" t="n">
-        <v>1.859834429129847e-06</v>
+        <v>1.088871215415566e-10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>social_bonds</t>
+          <t>language_and_cultural_knowledge</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2188,26 +2255,26 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>social_bonds</t>
+          <t>language_and_cultural_knowledge</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>4.687321040622985e-17</v>
       </c>
       <c r="E60" t="n">
-        <v>0.06776116183858288</v>
+        <v>0.01540144523211139</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>3.043429346841923e-15</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.9999999999999976</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>markers_and_means</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2217,20 +2284,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>markers_and_means</t>
+          <t>education</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3.790600752941722e-05</v>
+        <v>0.009016840859384357</v>
       </c>
       <c r="E61" t="n">
-        <v>5.433599678087032e-06</v>
+        <v>0.006165577275716498</v>
       </c>
       <c r="F61" t="n">
-        <v>6.976222541028266</v>
+        <v>1.462448762654437</v>
       </c>
       <c r="G61" t="n">
-        <v>3.032241124856228e-12</v>
+        <v>0.1436182752455124</v>
       </c>
     </row>
     <row r="62">
@@ -2250,16 +2317,16 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6.150944174981297e-05</v>
+        <v>0.000118924817759185</v>
       </c>
       <c r="E62" t="n">
-        <v>4.74453025167268e-06</v>
+        <v>0.0001027814773297092</v>
       </c>
       <c r="F62" t="n">
-        <v>12.96428213601246</v>
+        <v>1.157064674412351</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.2472459379419498</v>
       </c>
     </row>
     <row r="63">
@@ -2279,16 +2346,16 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-0.0001921396326104</v>
+        <v>-0.0001934334421358308</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0009350491951988701</v>
+        <v>0.0009350465409054537</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2054861213628967</v>
+        <v>-0.206870389298108</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8371923402953443</v>
+        <v>0.8361110821984572</v>
       </c>
     </row>
     <row r="64">
@@ -2308,13 +2375,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.006251011694048241</v>
+        <v>0.006251065573310152</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0002474095594459369</v>
+        <v>0.0002474116087877557</v>
       </c>
       <c r="F64" t="n">
-        <v>25.2658453569105</v>
+        <v>25.26585384846203</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2323,7 +2390,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>housing_space</t>
+          <t>bond_with_majhis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2333,17 +2400,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>housing_space</t>
+          <t>bond_with_majhis</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.8354205052385557</v>
+        <v>0.9114925272570503</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09933153388999602</v>
+        <v>0.0586053841569603</v>
       </c>
       <c r="F65" t="n">
-        <v>8.410425899144229</v>
+        <v>15.55305097566267</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2352,7 +2419,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>quality_of_education</t>
+          <t>return_to_home</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2362,17 +2429,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>quality_of_education</t>
+          <t>return_to_home</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.017195729867558</v>
+        <v>0.2642126483512323</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0403209132101421</v>
+        <v>0.01045697126391643</v>
       </c>
       <c r="F66" t="n">
-        <v>25.22749731735913</v>
+        <v>25.26665146701479</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2381,7 +2448,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>possibility_of_friendship_with_host</t>
+          <t>rights_in_home</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2391,26 +2458,26 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>possibility_of_friendship_with_host</t>
+          <t>rights_in_home</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.1058042453912083</v>
+        <v>4.949001761056434e-16</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004187696147412647</v>
+        <v>0.01290224880346035</v>
       </c>
       <c r="F67" t="n">
-        <v>25.26550199476949</v>
+        <v>3.835766800083368e-14</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.9999999999999694</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>intention_to_leave</t>
+          <t>trust_on_ngo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2420,26 +2487,26 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>intention_to_leave</t>
+          <t>trust_on_ngo</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.8140354572921854</v>
+        <v>2.320980235214865e-16</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03245673053171216</v>
+        <v>0.05362214936824836</v>
       </c>
       <c r="F68" t="n">
-        <v>25.08063640210907</v>
+        <v>4.328398362460865e-15</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.9999999999999964</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>rights_in_home</t>
+          <t>number_of_violence</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2449,26 +2516,26 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>rights_in_home</t>
+          <t>number_of_violence</t>
         </is>
       </c>
       <c r="D69" t="n">
+        <v>0.5561822403694009</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.02349376869822882</v>
+      </c>
+      <c r="F69" t="n">
+        <v>23.67360671204946</v>
+      </c>
+      <c r="G69" t="n">
         <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.01290383305239179</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>number_of_violence</t>
+          <t>number_of_healthcare_facilities</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2478,17 +2545,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>number_of_violence</t>
+          <t>number_of_healthcare_facilities</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.5563083888153477</v>
+        <v>0.1000952111230933</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02349760075759353</v>
+        <v>0.003961617926247084</v>
       </c>
       <c r="F70" t="n">
-        <v>23.67511451618714</v>
+        <v>25.26624549900732</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2497,7 +2564,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>marriage_to_host</t>
+          <t>quality_of_healthcare</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2507,17 +2574,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>marriage_to_host</t>
+          <t>quality_of_healthcare</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.04642232897515521</v>
+        <v>0.7041994612489301</v>
       </c>
       <c r="E71" t="n">
-        <v>0.001837173866418664</v>
+        <v>0.02967711373508066</v>
       </c>
       <c r="F71" t="n">
-        <v>25.26833730787891</v>
+        <v>23.72870446605402</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2526,7 +2593,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>friendship_with_host</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2536,26 +2603,26 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>friendship_with_host</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="D72" t="n">
+        <v>0.1484061453167085</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01633828936874778</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.083334366172968</v>
+      </c>
+      <c r="G72" t="n">
         <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.7659234343876911</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>trust_on_law_enforcement</t>
+          <t>gt_18_education</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2565,26 +2632,26 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>trust_on_law_enforcement</t>
+          <t>gt_18_education</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.4363877134370492</v>
+        <v>0.006171962235036367</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01933577364169353</v>
+        <v>0.00276445665004932</v>
       </c>
       <c r="F73" t="n">
-        <v>22.5689295655335</v>
+        <v>2.232613136723863</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.0255744670483713</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bond_with_majhis</t>
+          <t>repatriation_in_home</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2594,17 +2661,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>bond_with_majhis</t>
+          <t>repatriation_in_home</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.9108044240913236</v>
+        <v>0.2299996363950318</v>
       </c>
       <c r="E74" t="n">
-        <v>0.05873273449585595</v>
+        <v>0.0123756178522542</v>
       </c>
       <c r="F74" t="n">
-        <v>15.50761141795774</v>
+        <v>18.58490130531566</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2613,7 +2680,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>number_of_healthcare_facilities</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2623,26 +2690,26 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>number_of_healthcare_facilities</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.1000959090637216</v>
+        <v>0.3664611083529987</v>
       </c>
       <c r="E75" t="n">
-        <v>0.00396164548641374</v>
+        <v>0.07313708359337787</v>
       </c>
       <c r="F75" t="n">
-        <v>25.26624590254962</v>
+        <v>5.010605979114662</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>5.425890743371298e-07</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>psychological_healthcare</t>
+          <t>feeling_about_future</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2652,26 +2719,26 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>psychological_healthcare</t>
+          <t>feeling_about_future</t>
         </is>
       </c>
       <c r="D76" t="n">
+        <v>0.6844400942520574</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.03003652494479373</v>
+      </c>
+      <c r="F76" t="n">
+        <v>22.78692676623717</v>
+      </c>
+      <c r="G76" t="n">
         <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.07313510118278323</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>feeling_about_future</t>
+          <t>bond_with_neighbors</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2681,17 +2748,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>feeling_about_future</t>
+          <t>bond_with_neighbors</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.6842877930763308</v>
+        <v>0.9818351108475613</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03003327191479619</v>
+        <v>0.04138620031854616</v>
       </c>
       <c r="F77" t="n">
-        <v>22.78432383241019</v>
+        <v>23.72373166095785</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2700,7 +2767,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>improvement_in_6mos</t>
+          <t>fear_of_children_safety</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2710,17 +2777,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>improvement_in_6mos</t>
+          <t>fear_of_children_safety</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.1185187576434681</v>
+        <v>0.1287459795523765</v>
       </c>
       <c r="E78" t="n">
-        <v>0.006012651223677258</v>
+        <v>0.005118293663597436</v>
       </c>
       <c r="F78" t="n">
-        <v>19.7115637037187</v>
+        <v>25.15408219791989</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2729,7 +2796,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>fear_of_children_safety</t>
+          <t>improvement_in_6mos</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2739,17 +2806,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>fear_of_children_safety</t>
+          <t>improvement_in_6mos</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.1287512009310359</v>
+        <v>0.1184984583983022</v>
       </c>
       <c r="E79" t="n">
-        <v>0.005118455487110935</v>
+        <v>0.006012293667387421</v>
       </c>
       <c r="F79" t="n">
-        <v>25.15430704244612</v>
+        <v>19.70935967771599</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2758,7 +2825,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>income_from_jobs</t>
+          <t>trust_on_law_enforcement</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2768,17 +2835,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>income_from_jobs</t>
+          <t>trust_on_law_enforcement</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.4951555523201538</v>
+        <v>0.4363834393357888</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02549912455339023</v>
+        <v>0.01934127348383994</v>
       </c>
       <c r="F80" t="n">
-        <v>19.41853145836342</v>
+        <v>22.56229093073083</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2787,7 +2854,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>return_to_home</t>
+          <t>quality_of_education</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2797,17 +2864,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>return_to_home</t>
+          <t>quality_of_education</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.2642123521798499</v>
+        <v>1.017850118992537</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01045695968597242</v>
+        <v>0.04040743860006706</v>
       </c>
       <c r="F81" t="n">
-        <v>25.266651119351</v>
+        <v>25.18967185823202</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2816,7 +2883,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>quality_of_healthcare</t>
+          <t>possibility_of_friendship_with_host</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2826,17 +2893,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>quality_of_healthcare</t>
+          <t>possibility_of_friendship_with_host</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.7041880252353352</v>
+        <v>0.1051670079694712</v>
       </c>
       <c r="E82" t="n">
-        <v>0.02967610946554738</v>
+        <v>0.004167894083839802</v>
       </c>
       <c r="F82" t="n">
-        <v>23.72912210844675</v>
+        <v>25.23264886984609</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2845,7 +2912,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>12_18_education</t>
+          <t>help_from_ngo</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2855,26 +2922,26 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>12_18_education</t>
+          <t>help_from_ngo</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.01314630915831244</v>
+        <v>0.2711531076593033</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003003707278617359</v>
+        <v>0.01091555034514263</v>
       </c>
       <c r="F83" t="n">
-        <v>4.376694509322206</v>
+        <v>24.84099280941195</v>
       </c>
       <c r="G83" t="n">
-        <v>1.204926660114403e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>trust_on_ngo</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2884,26 +2951,26 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>trust_on_ngo</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.01268471898739525</v>
       </c>
       <c r="E84" t="n">
-        <v>0.05355080057338021</v>
+        <v>0.002735559882886402</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>4.636973608990823</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3.535475323390713e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>bond_with_neighbors</t>
+          <t>intention_to_leave</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2913,17 +2980,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>bond_with_neighbors</t>
+          <t>intention_to_leave</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.9809173819382477</v>
+        <v>0.8140450208550885</v>
       </c>
       <c r="E85" t="n">
-        <v>0.04137503203791825</v>
+        <v>0.03245680976858768</v>
       </c>
       <c r="F85" t="n">
-        <v>23.70795461899765</v>
+        <v>25.08086982775047</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2932,7 +2999,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>number_of_jobs</t>
+          <t>cultural_mixability</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2942,26 +3009,26 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>number_of_jobs</t>
+          <t>cultural_mixability</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.3650229070567244</v>
+        <v>0.4318269850868366</v>
       </c>
       <c r="E86" t="n">
-        <v>0.07301115357373975</v>
+        <v>0.0175533282510288</v>
       </c>
       <c r="F86" t="n">
-        <v>4.999549920589314</v>
+        <v>24.60086081036663</v>
       </c>
       <c r="G86" t="n">
-        <v>5.746429343478354e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>lt_12_education</t>
+          <t>psychological_healthcare</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2971,26 +3038,26 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>lt_12_education</t>
+          <t>psychological_healthcare</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.006254476947321054</v>
+        <v>2.17006209033911e-15</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0002475223018961586</v>
+        <v>0.07314681715754207</v>
       </c>
       <c r="F87" t="n">
-        <v>25.26833693020767</v>
+        <v>2.96672114336241e-14</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.9999999999999762</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bond_with_rohingyas_outside</t>
+          <t>sanitation_of_housing</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3000,17 +3067,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>bond_with_rohingyas_outside</t>
+          <t>sanitation_of_housing</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6.984457504760216</v>
+        <v>0.4675839082062264</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2894581816528141</v>
+        <v>0.01891970866687475</v>
       </c>
       <c r="F88" t="n">
-        <v>24.12941815931629</v>
+        <v>24.71411777075477</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3019,7 +3086,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>number_of_religious_facilities</t>
+          <t>housing_space</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3029,17 +3096,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>number_of_religious_facilities</t>
+          <t>housing_space</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.1483935938515947</v>
+        <v>0.8352483859027598</v>
       </c>
       <c r="E89" t="n">
-        <v>0.01632746569030652</v>
+        <v>0.09950682959355897</v>
       </c>
       <c r="F89" t="n">
-        <v>9.088587087376713</v>
+        <v>8.393879991011502</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3048,7 +3115,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cultural_mixability</t>
+          <t>income_from_jobs</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3058,17 +3125,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>cultural_mixability</t>
+          <t>income_from_jobs</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.4317547029329794</v>
+        <v>0.4947974762596861</v>
       </c>
       <c r="E90" t="n">
-        <v>0.01755111554978381</v>
+        <v>0.02557153766560398</v>
       </c>
       <c r="F90" t="n">
-        <v>24.59984390642895</v>
+        <v>19.34953942585485</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3077,7 +3144,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>repatriation_in_home</t>
+          <t>marriage_to_host</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3087,17 +3154,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>repatriation_in_home</t>
+          <t>marriage_to_host</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.2299954661247904</v>
+        <v>0.04642374340918352</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01237477826368868</v>
+        <v>0.001837226105889238</v>
       </c>
       <c r="F91" t="n">
-        <v>18.5858252330129</v>
+        <v>25.26838870572522</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3106,7 +3173,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>help_from_ngo</t>
+          <t>friendship_with_host</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3116,26 +3183,26 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>help_from_ngo</t>
+          <t>friendship_with_host</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.2711533345679275</v>
+        <v>5.683536640502193e-15</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01091839128840895</v>
+        <v>0.6705107412901233</v>
       </c>
       <c r="F92" t="n">
-        <v>24.83455001571078</v>
+        <v>8.476428922761294e-15</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.9999999999999933</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>sanitation_of_housing</t>
+          <t>lt_12_education</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3145,17 +3212,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>sanitation_of_housing</t>
+          <t>lt_12_education</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.4675541797941057</v>
+        <v>0.006254656451619227</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01891912285210221</v>
+        <v>0.0002475297538760382</v>
       </c>
       <c r="F93" t="n">
-        <v>24.71331168069665</v>
+        <v>25.26830139977124</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3164,7 +3231,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>gt_18_education</t>
+          <t>bond_with_rohingyas_outside</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3174,23 +3241,23 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>gt_18_education</t>
+          <t>bond_with_rohingyas_outside</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.005650705788044156</v>
+        <v>6.977363112222768</v>
       </c>
       <c r="E94" t="n">
-        <v>0.00328385539489406</v>
+        <v>0.2895402564237291</v>
       </c>
       <c r="F94" t="n">
-        <v>1.72075353717142</v>
+        <v>24.09807602707795</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08529555688763168</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/result/inspect_all.xlsx
+++ b/result/inspect_all.xlsx
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>33.46650889063781</v>
+        <v>33.93441008720396</v>
       </c>
       <c r="E3" t="n">
-        <v>14.57049709706618</v>
+        <v>14.8969488220108</v>
       </c>
       <c r="F3" t="n">
-        <v>2.296868025001983</v>
+        <v>2.277943657634261</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02162629953221007</v>
+        <v>0.02272993469873796</v>
       </c>
     </row>
     <row r="4">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44.29666813354901</v>
+        <v>45.04173416303595</v>
       </c>
       <c r="E4" t="n">
-        <v>19.20028721066154</v>
+        <v>19.68580510781269</v>
       </c>
       <c r="F4" t="n">
-        <v>2.307083620548637</v>
+        <v>2.288031092269525</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02105015888896133</v>
+        <v>0.02213571051536456</v>
       </c>
     </row>
     <row r="5">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>48.76999433040179</v>
+        <v>49.58394531705532</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0707792830891</v>
+        <v>21.6021595345768</v>
       </c>
       <c r="F5" t="n">
-        <v>2.314579526232383</v>
+        <v>2.295323541041723</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02063595440716148</v>
+        <v>0.02171458948152138</v>
       </c>
     </row>
     <row r="6">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.01367854867303762</v>
+        <v>0.01445060291692475</v>
       </c>
       <c r="E7" t="n">
-        <v>0.011555436757121</v>
+        <v>0.01165215585493388</v>
       </c>
       <c r="F7" t="n">
-        <v>1.183732727663844</v>
+        <v>1.240165605025421</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2365188793740161</v>
+        <v>0.2149141473519607</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.04815408698480669</v>
+        <v>0.0484505934370537</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01164169110711569</v>
+        <v>0.01171438495761961</v>
       </c>
       <c r="F8" t="n">
-        <v>4.136348107641972</v>
+        <v>4.135991228579444</v>
       </c>
       <c r="G8" t="n">
-        <v>3.528767470761807e-05</v>
+        <v>3.53425691008713e-05</v>
       </c>
     </row>
     <row r="9">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.4902910671702181</v>
+        <v>-0.4897173639699822</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06754855068973968</v>
+        <v>0.06751199582568977</v>
       </c>
       <c r="F10" t="n">
-        <v>-7.25835065529293</v>
+        <v>-7.253782945880269</v>
       </c>
       <c r="G10" t="n">
-        <v>3.919087276926803e-13</v>
+        <v>4.052314039881821e-13</v>
       </c>
     </row>
     <row r="11">
@@ -836,16 +836,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-65.45238109799612</v>
+        <v>-66.05943143984442</v>
       </c>
       <c r="E13" t="n">
-        <v>28.97863929027678</v>
+        <v>29.48795546403165</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.258642320723291</v>
+        <v>-2.240217417596791</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0239056430401714</v>
+        <v>0.02507681144263008</v>
       </c>
     </row>
     <row r="14">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37.64014793415623</v>
+        <v>38.23551189339987</v>
       </c>
       <c r="E14" t="n">
-        <v>16.29130250199708</v>
+        <v>16.68729547922959</v>
       </c>
       <c r="F14" t="n">
-        <v>2.310444357014413</v>
+        <v>2.291294712255123</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02086356574935522</v>
+        <v>0.02194637423210466</v>
       </c>
     </row>
     <row r="15">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-57.70060304597271</v>
+        <v>-58.55837855653635</v>
       </c>
       <c r="E15" t="n">
-        <v>24.97595801219386</v>
+        <v>25.55914628897914</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.310245837929404</v>
+        <v>-2.291092898583388</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02087454762957042</v>
+        <v>0.0219580412862197</v>
       </c>
     </row>
     <row r="16">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.4789772985152444</v>
+        <v>0.4794391850005569</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05313958698940358</v>
+        <v>0.05323549597579692</v>
       </c>
       <c r="F17" t="n">
-        <v>9.01356833280888</v>
+        <v>9.006005790000041</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2049292657654104</v>
+        <v>0.2049490274355061</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03777601828096172</v>
+        <v>0.03773544165330276</v>
       </c>
       <c r="F19" t="n">
-        <v>5.424850873265946</v>
+        <v>5.431207863235301</v>
       </c>
       <c r="G19" t="n">
-        <v>5.800294533564454e-08</v>
+        <v>5.597388907929712e-08</v>
       </c>
     </row>
     <row r="20">
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.004581585273819162</v>
+        <v>0.004694294577607534</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02661884522382703</v>
+        <v>0.02685961131975725</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1721181078714106</v>
+        <v>0.1747715006575601</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8633446771811288</v>
+        <v>0.8612591828205516</v>
       </c>
     </row>
     <row r="22">
@@ -1115,16 +1115,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.158574985301446</v>
+        <v>1.167399773522413</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4032046518397248</v>
+        <v>0.4096734563546142</v>
       </c>
       <c r="F22" t="n">
-        <v>2.873416712858537</v>
+        <v>2.849586067663265</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004060581276218223</v>
+        <v>0.004377615987838368</v>
       </c>
     </row>
     <row r="23">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.172425820321386</v>
+        <v>1.185599402437414</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4342901586912822</v>
+        <v>0.4433926901990911</v>
       </c>
       <c r="F23" t="n">
-        <v>2.699637090215789</v>
+        <v>2.673926360631667</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006941515031214429</v>
+        <v>0.007496891152058982</v>
       </c>
     </row>
     <row r="24">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.02706726892125026</v>
+        <v>0.02706807118666699</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01007043215231238</v>
+        <v>0.01006558967500004</v>
       </c>
       <c r="F25" t="n">
-        <v>2.687796164968677</v>
+        <v>2.689168946674525</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007192528754290439</v>
+        <v>0.007163015651934668</v>
       </c>
     </row>
     <row r="26">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3734527504130399</v>
+        <v>0.3734486484497893</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04221526351837394</v>
+        <v>0.04217423512925886</v>
       </c>
       <c r="F26" t="n">
-        <v>8.846391548441961</v>
+        <v>8.854900327092123</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1301,16 +1301,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.178558927070861</v>
+        <v>5.171165009628186</v>
       </c>
       <c r="E28" t="n">
-        <v>1.088903058075319</v>
+        <v>1.086396256970542</v>
       </c>
       <c r="F28" t="n">
-        <v>4.755757538434522</v>
+        <v>4.759925281815147</v>
       </c>
       <c r="G28" t="n">
-        <v>1.977036406142219e-06</v>
+        <v>1.936646409017584e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1330,16 +1330,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.086934347023</v>
+        <v>2.084048276630993</v>
       </c>
       <c r="E29" t="n">
-        <v>0.322081091937277</v>
+        <v>0.3212998606326004</v>
       </c>
       <c r="F29" t="n">
-        <v>6.479530774265186</v>
+        <v>6.486303083111426</v>
       </c>
       <c r="G29" t="n">
-        <v>9.20084008981803e-11</v>
+        <v>8.796807726696443e-11</v>
       </c>
     </row>
     <row r="30">
@@ -1394,16 +1394,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>54.94263916406631</v>
+        <v>52.27747281202168</v>
       </c>
       <c r="E31" t="n">
-        <v>46.07523560544458</v>
+        <v>41.81219097382207</v>
       </c>
       <c r="F31" t="n">
-        <v>1.192454871735321</v>
+        <v>1.250292596356658</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2330829357348509</v>
+        <v>0.211192681965324</v>
       </c>
     </row>
     <row r="32">
@@ -1423,16 +1423,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.1738818874642944</v>
+        <v>0.162075868782087</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3431830566597622</v>
+        <v>0.3251490591430113</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5066738700802975</v>
+        <v>0.4984663625008439</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6123836676243679</v>
+        <v>0.6181553723453823</v>
       </c>
     </row>
     <row r="33">
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.4229134575470485</v>
+        <v>0.4254476763011504</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0518191272268315</v>
+        <v>0.05224384725770791</v>
       </c>
       <c r="F34" t="n">
-        <v>8.16133887565567</v>
+        <v>8.143498203613584</v>
       </c>
       <c r="G34" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
     </row>
     <row r="35">
@@ -1516,13 +1516,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.8321968950272246</v>
+        <v>-0.8360770345322419</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08451488753445621</v>
+        <v>0.0852607626805706</v>
       </c>
       <c r="F35" t="n">
-        <v>-9.846749126632821</v>
+        <v>-9.806117236539366</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1580,16 +1580,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.004769211834204545</v>
+        <v>-0.004769782637969565</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005838528376273138</v>
+        <v>0.005835790032298806</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.8168517006389866</v>
+        <v>-0.8173328051135078</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4140131824470377</v>
+        <v>0.4137382643515917</v>
       </c>
     </row>
     <row r="38">
@@ -1609,13 +1609,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.5127601894772794</v>
+        <v>-0.5126864115194879</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05073304611427717</v>
+        <v>0.05070691204560573</v>
       </c>
       <c r="F38" t="n">
-        <v>-10.10702547432634</v>
+        <v>-10.11077959249949</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.654828723481183</v>
+        <v>1.655791162994513</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2284566444541258</v>
+        <v>0.2287391938745333</v>
       </c>
       <c r="F40" t="n">
-        <v>7.243513216382857</v>
+        <v>7.238773272478609</v>
       </c>
       <c r="G40" t="n">
-        <v>4.372058270973866e-13</v>
+        <v>4.527489494421388e-13</v>
       </c>
     </row>
     <row r="41">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.924662801481492</v>
+        <v>2.926769606828255</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4121498670287418</v>
+        <v>0.4127005947021642</v>
       </c>
       <c r="F41" t="n">
-        <v>7.096114873356107</v>
+        <v>7.091750398211421</v>
       </c>
       <c r="G41" t="n">
-        <v>1.283195771861756e-12</v>
+        <v>1.324274023772887e-12</v>
       </c>
     </row>
     <row r="42">
@@ -1731,16 +1731,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.201743851507626</v>
+        <v>2.2028429695716</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3161971774095595</v>
+        <v>0.3165525141812127</v>
       </c>
       <c r="F42" t="n">
-        <v>6.963198942945715</v>
+        <v>6.958854758309103</v>
       </c>
       <c r="G42" t="n">
-        <v>3.326228181776969e-12</v>
+        <v>3.430589146091734e-12</v>
       </c>
     </row>
     <row r="43">
@@ -1760,16 +1760,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.3124677127402163</v>
+        <v>-0.3126496349099386</v>
       </c>
       <c r="E43" t="n">
-        <v>0.06793067651429331</v>
+        <v>0.0679923868550627</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.599802751410404</v>
+        <v>-4.598303565541919</v>
       </c>
       <c r="G43" t="n">
-        <v>4.228911757886422e-06</v>
+        <v>4.259450567589695e-06</v>
       </c>
     </row>
     <row r="44">
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.123765075655875</v>
+        <v>0.1237886988745216</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01937956047060159</v>
+        <v>0.01938584273536028</v>
       </c>
       <c r="F45" t="n">
-        <v>6.386371653641881</v>
+        <v>6.385520637817941</v>
       </c>
       <c r="G45" t="n">
-        <v>1.698678975259327e-10</v>
+        <v>1.708153618551478e-10</v>
       </c>
     </row>
     <row r="46">
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.240466377087023</v>
+        <v>1.240734589767672</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02904469592040586</v>
+        <v>0.0290632511238171</v>
       </c>
       <c r="F46" t="n">
-        <v>42.70887808375377</v>
+        <v>42.69083952236195</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.1353486620880775</v>
+        <v>0.1352446990581314</v>
       </c>
       <c r="E47" t="n">
-        <v>0.05020618830823115</v>
+        <v>0.05020820209111001</v>
       </c>
       <c r="F47" t="n">
-        <v>2.695856161285035</v>
+        <v>2.693677395777222</v>
       </c>
       <c r="G47" t="n">
-        <v>0.007020797653491284</v>
+        <v>0.007066852804122448</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>social_links</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1907,26 +1907,26 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>social_links</t>
+          <t>facilitators</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.01017459759349866</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.003027271461077187</v>
+        <v>0.004950823111013376</v>
       </c>
       <c r="F48" t="n">
-        <v>3.360979588701064</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0007766656486685175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>social_bonds</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1936,26 +1936,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>social_bonds</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3614656486940762</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.07756545030181303</v>
+        <v>0.06866463865382588</v>
       </c>
       <c r="F49" t="n">
-        <v>4.660137307047479</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>3.159985154876921e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>social_bonds</t>
+          <t>rights_and_citizenship</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1965,26 +1965,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>social_bonds</t>
+          <t>rights_and_citizenship</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5.021501880784575e-14</v>
+        <v>0.08114137041026129</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06921035400786719</v>
+        <v>741455.2001894665</v>
       </c>
       <c r="F50" t="n">
-        <v>7.255420020162334e-13</v>
+        <v>1.094352974927237e-07</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9999999999994211</v>
+        <v>0.9999999126832657</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>safety_and_stability</t>
+          <t>health</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1994,26 +1994,26 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>safety_and_stability</t>
+          <t>health</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.569855485149349e-15</v>
+        <v>0.3614676865170544</v>
       </c>
       <c r="E51" t="n">
-        <v>0.001473269329833939</v>
+        <v>0.07753963122125419</v>
       </c>
       <c r="F51" t="n">
-        <v>3.10184661385885e-12</v>
+        <v>4.661715316661342</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9999999999975251</v>
+        <v>3.135847606916542e-06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>social_bridges</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2023,26 +2023,26 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>social_bridges</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.000165663756868351</v>
+        <v>0.4754065098927371</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0001658654308972162</v>
+        <v>0.07365920863146933</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9987841045204033</v>
+        <v>6.454135453244276</v>
       </c>
       <c r="G52" t="n">
-        <v>0.31789928781306</v>
+        <v>1.08838493773078e-10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>social_links</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2052,26 +2052,26 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>social_links</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.01248538346842441</v>
+        <v>0.01020315185879753</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09411627607413293</v>
+        <v>0.003032054811897987</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1326591317580111</v>
+        <v>3.365094791622692</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8944629652496234</v>
+        <v>0.0007651736643603524</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>social_connections</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2081,26 +2081,26 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>social_connections</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.3678525915519256</v>
+        <v>0.01237491272489341</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07649618559276147</v>
+        <v>0.09410236613651701</v>
       </c>
       <c r="F54" t="n">
-        <v>4.80877038111983</v>
+        <v>0.1315047987933615</v>
       </c>
       <c r="G54" t="n">
-        <v>1.518615219131547e-06</v>
+        <v>0.8953759906549108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>markers_and_means</t>
+          <t>safety_and_stability</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2110,26 +2110,26 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>markers_and_means</t>
+          <t>safety_and_stability</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7.387425725862631e-05</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>6.39942341935868e-05</v>
+        <v>0.001471279337300678</v>
       </c>
       <c r="F55" t="n">
-        <v>1.154389251393533</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2483406198726303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>rights_and_citizenship</t>
+          <t>social_bridges</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2139,26 +2139,26 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>rights_and_citizenship</t>
+          <t>social_bridges</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.08115253010307359</v>
+        <v>0.000182804723415777</v>
       </c>
       <c r="E56" t="n">
-        <v>741455.2001894723</v>
+        <v>0.0001741321212864413</v>
       </c>
       <c r="F56" t="n">
-        <v>1.094503485609593e-07</v>
+        <v>1.049804717334517</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9999999126712567</v>
+        <v>0.2938079059511702</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>markers_and_means</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2168,26 +2168,26 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>facilitators</t>
+          <t>markers_and_means</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7.329670968289659e-16</v>
+        <v>7.144156528772911e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004945858060234246</v>
+        <v>6.240512964743187e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>1.481981665778036e-13</v>
+        <v>1.144802751737675</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9999999999998817</v>
+        <v>0.2522908752059565</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>language_and_cultural_knowledge</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2197,26 +2197,26 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>language_and_cultural_knowledge</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.08115253010841403</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>741455.2001894723</v>
+        <v>0.01540451781957783</v>
       </c>
       <c r="F58" t="n">
-        <v>1.094503485681619e-07</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9999999126712567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>social_connections</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2226,26 +2226,26 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>social_connections</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.475597284852107</v>
+        <v>0.3657664986318069</v>
       </c>
       <c r="E59" t="n">
-        <v>0.07368954166148169</v>
+        <v>0.07631124110936341</v>
       </c>
       <c r="F59" t="n">
-        <v>6.454067621026509</v>
+        <v>4.793088060287544</v>
       </c>
       <c r="G59" t="n">
-        <v>1.088871215415566e-10</v>
+        <v>1.642334911400312e-06</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>language_and_cultural_knowledge</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2255,26 +2255,26 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>language_and_cultural_knowledge</t>
+          <t>education</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4.687321040622985e-17</v>
+        <v>0.00884968316497585</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01540144523211139</v>
+        <v>0.006106649444838824</v>
       </c>
       <c r="F60" t="n">
-        <v>3.043429346841923e-15</v>
+        <v>1.449188011112407</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9999999999999976</v>
+        <v>0.1472850846865885</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2284,20 +2284,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.009016840859384357</v>
+        <v>0.08114137040736263</v>
       </c>
       <c r="E61" t="n">
-        <v>0.006165577275716498</v>
+        <v>741455.2001894666</v>
       </c>
       <c r="F61" t="n">
-        <v>1.462448762654437</v>
+        <v>1.094352974888143e-07</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1436182752455124</v>
+        <v>0.9999999126832657</v>
       </c>
     </row>
     <row r="62">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.000118924817759185</v>
+        <v>0.0001153662769602578</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0001027814773297092</v>
+        <v>0.0001005421023280899</v>
       </c>
       <c r="F62" t="n">
-        <v>1.157064674412351</v>
+        <v>1.147442445915354</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2472459379419498</v>
+        <v>0.2511988070368543</v>
       </c>
     </row>
     <row r="63">
@@ -2346,16 +2346,16 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-0.0001934334421358308</v>
+        <v>-0.0001928997912221262</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0009350465409054537</v>
+        <v>0.0009351061325567257</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.206870389298108</v>
+        <v>-0.2062865211763949</v>
       </c>
       <c r="G63" t="n">
-        <v>0.8361110821984572</v>
+        <v>0.8365671066559897</v>
       </c>
     </row>
     <row r="64">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.006251065573310152</v>
+        <v>0.006251036861162022</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0002474116087877557</v>
+        <v>0.0002474105184366673</v>
       </c>
       <c r="F64" t="n">
-        <v>25.26585384846203</v>
+        <v>25.26584914576429</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2390,7 +2390,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bond_with_majhis</t>
+          <t>intention_to_leave</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2400,17 +2400,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>bond_with_majhis</t>
+          <t>intention_to_leave</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.9114925272570503</v>
+        <v>0.8140507102444726</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0586053841569603</v>
+        <v>0.03245675594226077</v>
       </c>
       <c r="F65" t="n">
-        <v>15.55305097566267</v>
+        <v>25.08108671327333</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>return_to_home</t>
+          <t>number_of_healthcare_facilities</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2429,17 +2429,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>return_to_home</t>
+          <t>number_of_healthcare_facilities</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2642126483512323</v>
+        <v>0.1000946342726911</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01045697126391643</v>
+        <v>0.003961594833752572</v>
       </c>
       <c r="F66" t="n">
-        <v>25.26665146701479</v>
+        <v>25.26624716758614</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>rights_in_home</t>
+          <t>bond_with_neighbors</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2458,26 +2458,26 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>rights_in_home</t>
+          <t>bond_with_neighbors</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4.949001761056434e-16</v>
+        <v>0.9813644834421282</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01290224880346035</v>
+        <v>0.04137946270651534</v>
       </c>
       <c r="F67" t="n">
-        <v>3.835766800083368e-14</v>
+        <v>23.71622102439462</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9999999999999694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>trust_on_ngo</t>
+          <t>fear_of_children_safety</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2487,26 +2487,26 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>trust_on_ngo</t>
+          <t>fear_of_children_safety</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2.320980235214865e-16</v>
+        <v>0.1287473632032639</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05362214936824836</v>
+        <v>0.005118349646894461</v>
       </c>
       <c r="F68" t="n">
-        <v>4.328398362460865e-15</v>
+        <v>25.1540773999734</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9999999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>number_of_violence</t>
+          <t>trust_on_law_enforcement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2516,17 +2516,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>number_of_violence</t>
+          <t>trust_on_law_enforcement</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.5561822403694009</v>
+        <v>0.4363840765895392</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02349376869822882</v>
+        <v>0.01933949373640124</v>
       </c>
       <c r="F69" t="n">
-        <v>23.67360671204946</v>
+        <v>22.56440021206981</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>number_of_healthcare_facilities</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2545,17 +2545,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>number_of_healthcare_facilities</t>
+          <t>number_of_religious_facilities</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.1000952111230933</v>
+        <v>0.1483853506480296</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003961617926247084</v>
+        <v>0.01634062113734181</v>
       </c>
       <c r="F70" t="n">
-        <v>25.26624549900732</v>
+        <v>9.08076562033842</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>quality_of_healthcare</t>
+          <t>bond_with_majhis</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2574,17 +2574,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>quality_of_healthcare</t>
+          <t>bond_with_majhis</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.7041994612489301</v>
+        <v>0.9112156721180007</v>
       </c>
       <c r="E71" t="n">
-        <v>0.02967711373508066</v>
+        <v>0.05864674571344683</v>
       </c>
       <c r="F71" t="n">
-        <v>23.72870446605402</v>
+        <v>15.53736121275584</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>number_of_religious_facilities</t>
+          <t>bond_with_rohingyas_outside</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2603,17 +2603,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>number_of_religious_facilities</t>
+          <t>bond_with_rohingyas_outside</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.1484061453167085</v>
+        <v>6.981111468967244</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01633828936874778</v>
+        <v>0.2895552217771825</v>
       </c>
       <c r="F72" t="n">
-        <v>9.083334366172968</v>
+        <v>24.10977576607206</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2622,7 +2622,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>gt_18_education</t>
+          <t>quality_of_education</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2632,26 +2632,26 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>gt_18_education</t>
+          <t>quality_of_education</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.006171962235036367</v>
+        <v>1.017824190491537</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00276445665004932</v>
+        <v>0.04040372885192502</v>
       </c>
       <c r="F73" t="n">
-        <v>2.232613136723863</v>
+        <v>25.19134296234276</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0255744670483713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>repatriation_in_home</t>
+          <t>trust_on_ngo</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2661,26 +2661,26 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>repatriation_in_home</t>
+          <t>trust_on_ngo</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.2299996363950318</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0123756178522542</v>
+        <v>0.05359268154339379</v>
       </c>
       <c r="F74" t="n">
-        <v>18.58490130531566</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>number_of_jobs</t>
+          <t>marriage_to_host</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2690,26 +2690,26 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>number_of_jobs</t>
+          <t>marriage_to_host</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.3664611083529987</v>
+        <v>0.046423589897365</v>
       </c>
       <c r="E75" t="n">
-        <v>0.07313708359337787</v>
+        <v>0.001837218069347543</v>
       </c>
       <c r="F75" t="n">
-        <v>5.010605979114662</v>
+        <v>25.2684156805529</v>
       </c>
       <c r="G75" t="n">
-        <v>5.425890743371298e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>feeling_about_future</t>
+          <t>repatriation_in_home</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2719,17 +2719,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>feeling_about_future</t>
+          <t>repatriation_in_home</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.6844400942520574</v>
+        <v>0.2299987206961741</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03003652494479373</v>
+        <v>0.01237506365698265</v>
       </c>
       <c r="F76" t="n">
-        <v>22.78692676623717</v>
+        <v>18.58565960166284</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2738,7 +2738,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bond_with_neighbors</t>
+          <t>income_from_jobs</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2748,17 +2748,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>bond_with_neighbors</t>
+          <t>income_from_jobs</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.9818351108475613</v>
+        <v>0.4946705395658139</v>
       </c>
       <c r="E77" t="n">
-        <v>0.04138620031854616</v>
+        <v>0.0255845100800469</v>
       </c>
       <c r="F77" t="n">
-        <v>23.72373166095785</v>
+        <v>19.33476693510218</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>fear_of_children_safety</t>
+          <t>number_of_violence</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2777,17 +2777,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>fear_of_children_safety</t>
+          <t>number_of_violence</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.1287459795523765</v>
+        <v>0.5562071795816582</v>
       </c>
       <c r="E78" t="n">
-        <v>0.005118293663597436</v>
+        <v>0.02349448037717115</v>
       </c>
       <c r="F78" t="n">
-        <v>25.15408219791989</v>
+        <v>23.67395109952861</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2796,7 +2796,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>improvement_in_6mos</t>
+          <t>sanitation_of_housing</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2806,17 +2806,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>improvement_in_6mos</t>
+          <t>sanitation_of_housing</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.1184984583983022</v>
+        <v>0.4675657011496829</v>
       </c>
       <c r="E79" t="n">
-        <v>0.006012293667387421</v>
+        <v>0.01891903275159869</v>
       </c>
       <c r="F79" t="n">
-        <v>19.70935967771599</v>
+        <v>24.71403835830132</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>trust_on_law_enforcement</t>
+          <t>friendship_with_host</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2835,26 +2835,26 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>trust_on_law_enforcement</t>
+          <t>friendship_with_host</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.4363834393357888</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01934127348383994</v>
+        <v>0.6404434501362668</v>
       </c>
       <c r="F80" t="n">
-        <v>22.56229093073083</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>quality_of_education</t>
+          <t>cultural_mixability</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2864,17 +2864,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>quality_of_education</t>
+          <t>cultural_mixability</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.017850118992537</v>
+        <v>0.4317962932364156</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04040743860006706</v>
+        <v>0.01755205130288549</v>
       </c>
       <c r="F81" t="n">
-        <v>25.18967185823202</v>
+        <v>24.60090195502271</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>possibility_of_friendship_with_host</t>
+          <t>feeling_about_future</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2893,17 +2893,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>possibility_of_friendship_with_host</t>
+          <t>feeling_about_future</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.1051670079694712</v>
+        <v>0.6843871849702473</v>
       </c>
       <c r="E82" t="n">
-        <v>0.004167894083839802</v>
+        <v>0.03003575897890413</v>
       </c>
       <c r="F82" t="n">
-        <v>25.23264886984609</v>
+        <v>22.78574633083675</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>help_from_ngo</t>
+          <t>possibility_of_friendship_with_host</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2922,17 +2922,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>help_from_ngo</t>
+          <t>possibility_of_friendship_with_host</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.2711531076593033</v>
+        <v>0.1051107862416111</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01091555034514263</v>
+        <v>0.004166341922243908</v>
       </c>
       <c r="F83" t="n">
-        <v>24.84099280941195</v>
+        <v>25.22855497173693</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2941,7 +2941,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>between_12_18_education</t>
+          <t>lt_12_education</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2951,26 +2951,26 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>between_12_18_education</t>
+          <t>lt_12_education</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.01268471898739525</v>
+        <v>0.006254630339259977</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002735559882886402</v>
+        <v>0.0002475287840534566</v>
       </c>
       <c r="F84" t="n">
-        <v>4.636973608990823</v>
+        <v>25.26829490925357</v>
       </c>
       <c r="G84" t="n">
-        <v>3.535475323390713e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>intention_to_leave</t>
+          <t>help_from_ngo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2980,17 +2980,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>intention_to_leave</t>
+          <t>help_from_ngo</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.8140450208550885</v>
+        <v>0.2711510622100198</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03245680976858768</v>
+        <v>0.0109163180314082</v>
       </c>
       <c r="F85" t="n">
-        <v>25.08086982775047</v>
+        <v>24.83905849985596</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>cultural_mixability</t>
+          <t>quality_of_healthcare</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3009,17 +3009,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>cultural_mixability</t>
+          <t>quality_of_healthcare</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.4318269850868366</v>
+        <v>0.7041941123108747</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0175533282510288</v>
+        <v>0.02967534442695908</v>
       </c>
       <c r="F86" t="n">
-        <v>24.60086081036663</v>
+        <v>23.72993897410025</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>psychological_healthcare</t>
+          <t>housing_space</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3038,26 +3038,26 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>psychological_healthcare</t>
+          <t>housing_space</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2.17006209033911e-15</v>
+        <v>0.8353103214673974</v>
       </c>
       <c r="E87" t="n">
-        <v>0.07314681715754207</v>
+        <v>0.09949367883764036</v>
       </c>
       <c r="F87" t="n">
-        <v>2.96672114336241e-14</v>
+        <v>8.395611974727663</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9999999999999762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sanitation_of_housing</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3067,26 +3067,26 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>sanitation_of_housing</t>
+          <t>between_12_18_education</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.4675839082062264</v>
+        <v>0.01272499630441973</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01891970866687475</v>
+        <v>0.002746930615900527</v>
       </c>
       <c r="F88" t="n">
-        <v>24.71411777075477</v>
+        <v>4.632441833852307</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>3.613778848610139e-06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>housing_space</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3096,26 +3096,26 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>housing_space</t>
+          <t>number_of_jobs</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.8352483859027598</v>
+        <v>0.3670154285107201</v>
       </c>
       <c r="E89" t="n">
-        <v>0.09950682959355897</v>
+        <v>0.07311756910078474</v>
       </c>
       <c r="F89" t="n">
-        <v>8.393879991011502</v>
+        <v>5.019524486649838</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>5.17995425886042e-07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>income_from_jobs</t>
+          <t>improvement_in_6mos</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3125,17 +3125,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>income_from_jobs</t>
+          <t>improvement_in_6mos</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.4947974762596861</v>
+        <v>0.1185046603994858</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02557153766560398</v>
+        <v>0.006012523052016012</v>
       </c>
       <c r="F90" t="n">
-        <v>19.34953942585485</v>
+        <v>19.70963925702394</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>marriage_to_host</t>
+          <t>return_to_home</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3154,17 +3154,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>marriage_to_host</t>
+          <t>return_to_home</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.04642374340918352</v>
+        <v>0.2642096742077982</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001837226105889238</v>
+        <v>0.01045685402722989</v>
       </c>
       <c r="F91" t="n">
-        <v>25.26838870572522</v>
+        <v>25.2666503227953</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>friendship_with_host</t>
+          <t>psychological_healthcare</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3183,26 +3183,26 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>friendship_with_host</t>
+          <t>psychological_healthcare</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5.683536640502193e-15</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6705107412901233</v>
+        <v>0.07311565826074577</v>
       </c>
       <c r="F92" t="n">
-        <v>8.476428922761294e-15</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9999999999999933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>lt_12_education</t>
+          <t>rights_in_home</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3212,26 +3212,26 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>lt_12_education</t>
+          <t>rights_in_home</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.006254656451619227</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0002475297538760382</v>
+        <v>0.01290663017461849</v>
       </c>
       <c r="F93" t="n">
-        <v>25.26830139977124</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bond_with_rohingyas_outside</t>
+          <t>gt_18_education</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3241,20 +3241,20 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>bond_with_rohingyas_outside</t>
+          <t>gt_18_education</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6.977363112222768</v>
+        <v>0.00612928615350775</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2895402564237291</v>
+        <v>0.002795630048243515</v>
       </c>
       <c r="F94" t="n">
-        <v>24.09807602707795</v>
+        <v>2.192452522523968</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.02834684770597296</v>
       </c>
     </row>
   </sheetData>
